--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1992843.890403475</v>
+        <v>1990550.294946881</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228319</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>72.94942429078246</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>84.49712706373734</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>146.2200463431398</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>35.27420614869437</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>376.2274714067185</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>318.4070179429972</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1054,22 +1054,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>157.7822070347179</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>36.69369469525667</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>301.9029411358548</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>407.0181781096231</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>156.0100170058529</v>
       </c>
       <c r="T10" t="n">
-        <v>129.5765970421788</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>117.8112368376984</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856933</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>113.6427030833203</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,10 +1768,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>77.73359659136777</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>33.45472478220964</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>126.9263824507421</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>41.55695577161193</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187854</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>181.9855643708034</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541129</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>9.146142788179368</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>239.4844875583173</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>139.511541534052</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,16 +3007,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>178.2798710842933</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>42.71572132711417</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428347</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016433</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>4.019807611473823</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>124.936238874645</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.405450327287</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141629</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>99.97427419833861</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>31.83025205764035</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>162.3413016667501</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>918.0161179218665</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>918.0161179218665</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>918.0161179218665</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>918.0161179218665</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>507.0302131322589</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4325,55 +4325,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
         <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796631</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.25053145306</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182946</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218665</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>918.0161179218665</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488059</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756909</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182533</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812058006</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310615</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625333</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217535</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118699</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>1675.639966294861</v>
+        <v>1977.748514897737</v>
       </c>
       <c r="P3" t="n">
-        <v>2238.100841080695</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>919.6966947956497</v>
+        <v>349.0604424885609</v>
       </c>
       <c r="C4" t="n">
-        <v>750.7605118677428</v>
+        <v>349.0604424885609</v>
       </c>
       <c r="D4" t="n">
-        <v>600.6438724554071</v>
+        <v>198.9438030762251</v>
       </c>
       <c r="E4" t="n">
-        <v>452.7307788730139</v>
+        <v>198.9438030762251</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>198.9438030762251</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,31 +4507,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
         <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>1244.744376093918</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="V4" t="n">
-        <v>1209.11386483261</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="W4" t="n">
-        <v>919.6966947956497</v>
+        <v>758.6984582168179</v>
       </c>
       <c r="X4" t="n">
-        <v>919.6966947956497</v>
+        <v>530.7089073188006</v>
       </c>
       <c r="Y4" t="n">
-        <v>919.6966947956497</v>
+        <v>530.7089073188006</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1935.366530930992</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1566.40401399058</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1208.13831538383</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927146</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4586,31 +4586,31 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794326</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2434.183678346854</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W5" t="n">
-        <v>2434.183678346854</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>2434.183678346854</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>1935.366530930992</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387302</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218345</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1767.918581386758</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1478.501411349798</v>
+        <v>843.1598980861128</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>615.1703471880954</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>394.3777680445654</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2001.643962205201</v>
+        <v>1582.86133602681</v>
       </c>
       <c r="C8" t="n">
-        <v>1632.681445264789</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D8" t="n">
-        <v>1274.415746658038</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>888.6274940597941</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>477.6415892701866</v>
+        <v>821.1650657389511</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>2630.721789066529</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269322</v>
+        <v>2277.953133796415</v>
       </c>
       <c r="X8" t="n">
-        <v>2388.243802269322</v>
+        <v>2277.953133796415</v>
       </c>
       <c r="Y8" t="n">
-        <v>2388.243802269322</v>
+        <v>1887.813801820603</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>332.773976541745</v>
+        <v>625.8811108217975</v>
       </c>
       <c r="C10" t="n">
-        <v>163.8377936138381</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="D10" t="n">
-        <v>163.8377936138381</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1679.878215082532</v>
       </c>
       <c r="T10" t="n">
-        <v>1796.409096530736</v>
+        <v>1679.878215082532</v>
       </c>
       <c r="U10" t="n">
-        <v>1507.30622965638</v>
+        <v>1390.775348208175</v>
       </c>
       <c r="V10" t="n">
-        <v>1252.621741450493</v>
+        <v>1136.090860002288</v>
       </c>
       <c r="W10" t="n">
-        <v>963.2045714135322</v>
+        <v>846.6736899653276</v>
       </c>
       <c r="X10" t="n">
-        <v>735.2150205155149</v>
+        <v>846.6736899653276</v>
       </c>
       <c r="Y10" t="n">
-        <v>514.4224413719847</v>
+        <v>625.8811108217975</v>
       </c>
     </row>
     <row r="11">
@@ -5036,16 +5036,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5072,10 +5072,10 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>372.4964262156772</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>867.8220324314358</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429802</v>
+        <v>615.6449305525929</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>465.5282911402571</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>317.615197557864</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>317.615197557864</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.615197557864</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000621</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5233,16 +5233,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5273,28 +5273,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852254</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811332</v>
+        <v>803.2707707770273</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532263</v>
+        <v>634.3345878491205</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408905</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797186</v>
@@ -5440,46 +5440,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797699</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R16" t="n">
-        <v>2413.170432285099</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S16" t="n">
-        <v>2413.170432285099</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T16" t="n">
-        <v>2193.56896730804</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U16" t="n">
-        <v>1904.493740652238</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V16" t="n">
-        <v>1649.809252446351</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W16" t="n">
-        <v>1360.39208240939</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="X16" t="n">
-        <v>1132.402531511373</v>
+        <v>1205.711814750797</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.402531511373</v>
+        <v>984.9192356072671</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5489,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>721.7774158311365</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>552.8412329032296</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2404.986360578632</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2185.384895601574</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>903.4258806613763</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>960.4603932171079</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L24" t="n">
-        <v>716.6687843969308</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="26">
@@ -6203,28 +6203,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6242,31 +6242,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.557557724331</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.873069518444</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.455899481483</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>963.466348583466</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>963.466348583466</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,37 +6473,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6835,22 +6835,22 @@
         <v>513.853600740073</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121661</v>
+        <v>513.853600740073</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121661</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121661</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121661</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270461</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6868,19 +6868,19 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
         <v>2197.062545487569</v>
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876706</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597637</v>
+        <v>741.843151638089</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597637</v>
+        <v>591.7265122257533</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>443.8134186433601</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>443.8134186433601</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7117,28 +7117,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258108</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396419</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359458</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614405</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179104</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7184,16 +7184,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7312,19 +7312,19 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998291</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>194.8007783998291</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F40" t="n">
-        <v>194.8007783998291</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G40" t="n">
-        <v>194.8007783998291</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7388,16 +7388,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7406,52 +7406,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>267.680263960966</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>267.680263960966</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>267.680263960966</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>125.9684328031641</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="44">
@@ -7634,25 +7634,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
   </sheetData>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>224.3355197601775</v>
       </c>
       <c r="Q3" t="n">
-        <v>186.4490126143857</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-1.876970801006905e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,19 +23416,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>49.43558426092946</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>70.88187642684458</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>32.92052192791205</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>40.32043864788577</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.4693302300327</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>43.72409101823374</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>31.13893193492422</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012339</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>46.69998683092683</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,16 +24895,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>108.2431272522977</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>105.8997516910982</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194039</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>142.4141550350953</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>40.58789941762386</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25564,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>40.32043864788525</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>49.43558426092517</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26029,7 +26029,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>856653.0891496912</v>
+        <v>856653.089149691</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>856653.0891496913</v>
+        <v>856653.089149691</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>856653.0891496913</v>
+        <v>856653.0891496912</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>856653.0891496912</v>
+        <v>856653.0891496913</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>856653.0891496912</v>
+        <v>856653.0891496913</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>856653.0891496912</v>
+        <v>856653.0891496913</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>856653.0891496913</v>
+        <v>856653.0891496912</v>
       </c>
     </row>
     <row r="15">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049985</v>
@@ -26320,31 +26320,31 @@
         <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="H2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="I2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="J2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830049</v>
       </c>
       <c r="K2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="L2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="M2" t="n">
         <v>565002.6197830046</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="M2" t="n">
-        <v>565002.6197830047</v>
       </c>
       <c r="N2" t="n">
         <v>565002.6197830045</v>
@@ -26366,16 +26366,16 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121062</v>
+        <v>203438.741612106</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099827</v>
       </c>
       <c r="K3" t="n">
         <v>49110.09270605451</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137930.4104072218</v>
+        <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312007</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312018</v>
+        <v>89134.17909312031</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768887</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.14432176893</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768952</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
@@ -26442,7 +26442,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.14432176885</v>
       </c>
       <c r="L4" t="n">
         <v>9947.144321768897</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-770890.7275179878</v>
+        <v>-770890.7275179877</v>
       </c>
       <c r="C6" t="n">
-        <v>174222.3776383789</v>
+        <v>174222.3776383791</v>
       </c>
       <c r="D6" t="n">
-        <v>377661.1192504854</v>
+        <v>377661.1192504855</v>
       </c>
       <c r="E6" t="n">
-        <v>128520.4838299735</v>
+        <v>128485.7459045372</v>
       </c>
       <c r="F6" t="n">
-        <v>453932.9456373284</v>
+        <v>453898.2077118924</v>
       </c>
       <c r="G6" t="n">
-        <v>453932.9456373284</v>
+        <v>453898.207711893</v>
       </c>
       <c r="H6" t="n">
-        <v>453932.9456373284</v>
+        <v>453898.2077118927</v>
       </c>
       <c r="I6" t="n">
-        <v>453932.9456373285</v>
+        <v>453898.2077118927</v>
       </c>
       <c r="J6" t="n">
-        <v>286327.7678273459</v>
+        <v>286293.0299019105</v>
       </c>
       <c r="K6" t="n">
-        <v>404822.8529312741</v>
+        <v>404788.1150058386</v>
       </c>
       <c r="L6" t="n">
-        <v>453932.9456373284</v>
+        <v>453898.2077118931</v>
       </c>
       <c r="M6" t="n">
-        <v>368877.9177018169</v>
+        <v>368843.1797763811</v>
       </c>
       <c r="N6" t="n">
-        <v>453932.9456373285</v>
+        <v>453898.2077118928</v>
       </c>
       <c r="O6" t="n">
-        <v>453932.9456373285</v>
+        <v>453898.2077118928</v>
       </c>
       <c r="P6" t="n">
-        <v>453932.9456373286</v>
+        <v>453898.2077118928</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,16 +26811,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757593</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>190.816623302254</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000393</v>
       </c>
       <c r="K4" t="n">
         <v>190.816623302254</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>190.816623302254</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>309.7844173726981</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>327.0505757092167</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>20.0865537016644</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27594,13 +27594,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>216.8634371751336</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>5.70289866554333</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>9.345240527137719</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>94.35543628911012</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>249.8293036413343</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>80.83090052762577</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>3.903547543830371</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,13 +28020,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>33.75900832558898</v>
       </c>
       <c r="T10" t="n">
-        <v>89.97235223399039</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-3.770613451100265e-12</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28512,7 +28512,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29466,7 +29466,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -29940,22 +29940,22 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
         <v>1.319714707885093e-12</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -30195,7 +30195,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -31039,34 +31039,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31075,13 +31075,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,34 +31118,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31835,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>266.3926848685848</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,7 +32081,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>461.1007071927452</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32336,7 +32336,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043711</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>687.0167715190033</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>249.1672590991327</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>277.4567226539314</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>610.0546826043645</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>229.6463482471735</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33494,7 +33494,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>379.4203056753698</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33731,10 +33731,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422586</v>
@@ -33746,16 +33746,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>510.8679233250717</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33904,7 +33904,7 @@
         <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460029</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33968,7 +33968,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,7 +33977,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>303.7670002884146</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L41" t="n">
         <v>867.8464071162563</v>
@@ -34205,34 +34205,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>423.9151577118737</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>391.6051949514474</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434849</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>474.0150488837098</v>
       </c>
       <c r="Q3" t="n">
-        <v>302.9297349452403</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>128.5512458942258</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>318.5044627483008</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35808,7 +35808,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191269</v>
       </c>
       <c r="M16" t="n">
         <v>426.2724270010451</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35984,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>544.4205270745589</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>122.329632432466</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>138.9023428740572</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>471.5003028244903</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899088</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>91.80490927281451</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,22 +37154,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899088</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060455</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37394,16 +37394,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>379.5262112417385</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
         <v>696.4886512243162</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,7 +37625,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>163.785226202393</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L41" t="n">
         <v>632.079992146269</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>285.3607779319996</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>253.0508151715732</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>189.5729943876631</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
